--- a/saveFiles/genie_chart.xlsx
+++ b/saveFiles/genie_chart.xlsx
@@ -586,12 +586,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TOO BAD (Feat. Anderson .Paak)</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>TOO BAD (Feat. Anderson .Paak)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -806,12 +806,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ATTITUDE</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>Lady Gaga &amp; Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lady Gaga &amp; Bruno Mars</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>MY LOVE (2025)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>이예은 &amp; 아샤트리 &amp; 전건호</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>ATTITUDE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MY LOVE (2025)</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>이예은 &amp; 아샤트리 &amp; 전건호</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>HANDS UP</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>MEOVV (미야오)</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>i-dle (아이들)</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>미치게 그리워서</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HANDS UP</t>
+          <t>Flower</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MEOVV (미야오)</t>
+          <t>오반 (OVAN)</t>
         </is>
       </c>
     </row>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>i-dle (아이들)</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>그날이 오면</t>
+          <t>HOT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>투모로우바이투게더</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>미치게 그리워서</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>그날이 오면</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>투모로우바이투게더</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>순순희 (지환)</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>심 (心)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>오반 (OVAN)</t>
+          <t>DK (디셈버)</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>눈물참기</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PO￦ER</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>눈물참기</t>
+          <t>PO￦ER</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>Cruel Summer</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>아일릿 (ILLIT)</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>UP (KARINA Solo)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Drowning</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>WOODZ</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>너에게 닿기를</t>
+          <t>천국보다 아름다운</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>마크툽 (Maktub)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>모르시나요 (Prod. by 로코베리)</t>
+          <t>Small girl (Feat. 도경수 (D.O.))</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>조째즈</t>
+          <t>이영지</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>like JENNIE</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1566,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TOO BAD (Feat. Anderson .Paak)</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Never Ending Story</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>DRIP</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>BABYMONSTER</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -1666,12 +1666,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
+          <t>I DO ME</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>KiiiKiii (키키)</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
     </row>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
+          <t>경서예지 &amp; 전건호</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>어제보다 슬픈 오늘</t>
+          <t>Stay</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>The Kid LAROI &amp; Justin Bieber</t>
         </is>
       </c>
     </row>
@@ -1786,12 +1786,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ATTITUDE</t>
+          <t>클락션 (Klaxon)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>i-dle (아이들)</t>
         </is>
       </c>
     </row>
@@ -1826,12 +1826,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1846,12 +1846,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>봄여름가을겨울 (Still Life)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>I Don't Think That I Like Her</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Lady Gaga &amp; Bruno Mars</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -1906,12 +1906,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>THUNDER</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>아일릿 (ILLIT)</t>
         </is>
       </c>
     </row>
@@ -1946,12 +1946,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MY LOVE (2025)</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>이예은 &amp; 아샤트리 &amp; 전건호</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>모래 알갱이</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1986,12 +1986,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>너와의 모든 지금</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>재쓰비 (JAESSBEE)</t>
         </is>
       </c>
     </row>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>Anne-Marie</t>
         </is>
       </c>
     </row>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>i-dle (아이들)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2046,12 +2046,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>온기</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2066,12 +2066,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>London Boy</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HANDS UP</t>
+          <t>Older</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MEOVV (미야오)</t>
+          <t>Sasha Alex Sloan</t>
         </is>
       </c>
     </row>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>네모의 꿈</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>벌써 일년</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>브라운 아이즈</t>
         </is>
       </c>
     </row>
@@ -2166,12 +2166,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>해야 (HEYA)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2186,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>그날이 오면</t>
+          <t>LOVE ATTACK</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>투모로우바이투게더</t>
+          <t>RESCENE (리센느)</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>미치게 그리워서</t>
+          <t>Do or Die</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>영원해</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>도경수 (D.O.)</t>
         </is>
       </c>
     </row>
@@ -2246,12 +2246,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>보금자리</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>오반 (OVAN)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>When I Get Old</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>Christopher &amp; 청하</t>
         </is>
       </c>
     </row>
@@ -2306,12 +2306,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>만년설 (Everlasting)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>엔플라잉 (N.Flying)</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PO￦ER</t>
+          <t>가까운 듯 먼 그대여</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>카더가든</t>
         </is>
       </c>
     </row>
@@ -2346,12 +2346,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>눈물참기</t>
+          <t>Dangerously</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -2366,12 +2366,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>To. X</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>그라데이션</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>아일릿 (ILLIT)</t>
+          <t>10CM</t>
         </is>
       </c>
     </row>
@@ -2406,12 +2406,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>사막에서 꽃을 피우듯</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -2466,12 +2466,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Drowning</t>
+          <t>After LIKE</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>WOODZ</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>너에게 닿기를</t>
+          <t>봄이 와도</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2506,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>SPOT! (Feat. JENNIE)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>마크툽 (Maktub)</t>
+          <t>지코 (ZICO)</t>
         </is>
       </c>
     </row>
@@ -2526,12 +2526,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>모르시나요 (Prod. by 로코베리)</t>
+          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>조째즈</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -2546,12 +2546,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>like JENNIE</t>
+          <t>TAKE ME</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>굿데이 2025 (텔레파시 ＋ 달빛 창가에서)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>G-DRAGON &amp; 황정민 &amp; 데프콘 &amp; 홍진경 &amp; 정형돈 &amp; 조세호 &amp; 기안84 &amp; 안성재 &amp; 태양 &amp; 정해인 &amp; 황광희 &amp; 임시완 &amp; 이수혁 &amp; 대성 &amp; 코드 쿤스트 (CODE KUNST) &amp; CL &amp; 김고은 &amp; DAY6 (데이식스) &amp; 부석순 (SEVENTEEN) &amp; aespa</t>
         </is>
       </c>
     </row>
@@ -2586,12 +2586,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TOO BAD (Feat. Anderson .Paak)</t>
+          <t>희재</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -2606,12 +2606,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Never Ending Story</t>
+          <t>숙녀에게</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>송필근</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>어른</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>Sondia</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2646,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>뱅뱅뱅 (BANG BANG BANG)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -2666,12 +2666,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
+          <t>붉은 노을</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -2706,12 +2706,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>밤양갱</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>비비 (BIBI)</t>
         </is>
       </c>
     </row>
@@ -2726,12 +2726,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>LOVE DIVE</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>숲</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
+          <t>최유리</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>어제보다 슬픈 오늘</t>
+          <t>참 다행이야</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>Spapa</t>
         </is>
       </c>
     </row>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>물론</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>허각</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ATTITUDE</t>
+          <t>신호등</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>취중고백</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>김민석</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>진달래꽃 피었습니다</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>알리 (ALi)</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>Good Thing</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Lady Gaga &amp; Bruno Mars</t>
+          <t>i-dle (아이들)</t>
         </is>
       </c>
     </row>
@@ -2886,12 +2886,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>Off My Face</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>Spicy</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>장범준</t>
         </is>
       </c>
     </row>
@@ -2946,12 +2946,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MY LOVE (2025)</t>
+          <t>Beautiful Things</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>이예은 &amp; 아샤트리 &amp; 전건호</t>
+          <t>Benson Boone</t>
         </is>
       </c>
     </row>
@@ -2966,12 +2966,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>빨간 운동화</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -2986,12 +2986,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>luther</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Kendrick Lamar &amp; SZA</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3006,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>범진</t>
         </is>
       </c>
     </row>
@@ -3026,12 +3026,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>The Drum</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>i-dle (아이들)</t>
+          <t>Alan Walker</t>
         </is>
       </c>
     </row>
@@ -3046,12 +3046,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>Attention</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -3066,12 +3066,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>마크툽 (Maktub)</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3086,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>남자를 몰라</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>버즈 (Buzz)</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HANDS UP</t>
+          <t>녹아내려요</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>MEOVV (미야오)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -3126,12 +3126,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>네모의 꿈</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>아마추어</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>미도와 파라솔</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>사랑의 바보</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>더 넛츠 (The NuTs)</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3186,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>그날이 오면</t>
+          <t>사랑하지 않아서 그랬어</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>투모로우바이투게더</t>
+          <t>임한별</t>
         </is>
       </c>
     </row>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>미치게 그리워서</t>
+          <t>Monologue</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>테이 (Tei)</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>Shape Of You</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>미안해 미워해 사랑해</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>Crush</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>퀸카 (Queencard)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>오반 (OVAN)</t>
+          <t>i-dle (아이들)</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>달리기</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>고윤정 &amp; 신시아 &amp; 강유석 &amp; 한예지</t>
         </is>
       </c>
     </row>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>건물 사이에 피어난 장미</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>H1-KEY (하이키)</t>
         </is>
       </c>
     </row>
@@ -3326,12 +3326,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>PO￦ER</t>
+          <t>ETA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>눈물참기</t>
+          <t>봄 내음보다 너를</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>김나영</t>
         </is>
       </c>
     </row>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>하루하루</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3386,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>BETELGEUSE</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>아일릿 (ILLIT)</t>
+          <t>Yuuri</t>
         </is>
       </c>
     </row>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>살기 위해서</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>순순희</t>
         </is>
       </c>
     </row>
@@ -3426,12 +3426,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>마음 따라 뛰는 건 멋지지 않아?</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -3446,12 +3446,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>첫눈처럼 너에게 가겠다</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>에일리 (Ailee)</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Drowning</t>
+          <t>Ridin' (Prod. by THE HUB)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>WOODZ</t>
+          <t>릴리 (NMIXX) &amp; 지우 (NMIXX) &amp; 규진 (NMIXX)</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>너에게 닿기를</t>
+          <t>봄 그리고 너</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>마틴스미스</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3506,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>마크툽 (Maktub)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -3526,12 +3526,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>모르시나요 (Prod. by 로코베리)</t>
+          <t>Sticky</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>조째즈</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -3546,12 +3546,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>like JENNIE</t>
+          <t>Every Second</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>Mina Okabe</t>
         </is>
       </c>
     </row>
@@ -3566,12 +3566,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>TOMBOY</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>i-dle (아이들)</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>TOO BAD (Feat. Anderson .Paak)</t>
+          <t>그대가 내 안에 박혔다 (그내박)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>순순희 (기태)</t>
         </is>
       </c>
     </row>
@@ -3606,12 +3606,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Never Ending Story</t>
+          <t>Love Lee</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -3626,12 +3626,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>뱁새</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>Love me or Leave me</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -3666,12 +3666,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
+          <t>Bubble Gum</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>모르시나요</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>다비치</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>어땠을까 (Feat. 박정현)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>싸이 (Psy)</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>Kitsch</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3746,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>Fly Up</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>어제보다 슬픈 오늘</t>
+          <t>오래된 노래</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>Standing Egg (스탠딩 에그)</t>
         </is>
       </c>
     </row>
@@ -3786,12 +3786,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>Memories</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>Maroon 5</t>
         </is>
       </c>
     </row>
@@ -3806,12 +3806,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ATTITUDE</t>
+          <t>삐딱하게 (Crooked)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>후라이의 꿈</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -3846,12 +3846,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>That's Hilarious</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -3866,12 +3866,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>다시 사랑한다면 (니글니글 버터플라이)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Lady Gaga &amp; Bruno Mars</t>
+          <t>김필</t>
         </is>
       </c>
     </row>
@@ -3886,12 +3886,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>Way Back Home</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>숀 (SHAUN)</t>
         </is>
       </c>
     </row>
@@ -3906,12 +3906,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>Again</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>신예영</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>Last Scene (Feat. 원슈타인)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MY LOVE (2025)</t>
+          <t>그랬나봐</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>이예은 &amp; 아샤트리 &amp; 전건호</t>
+          <t>유회승 (엔플라잉)</t>
         </is>
       </c>
     </row>
@@ -3966,12 +3966,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>FANTASTIC BABY</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3986,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>These Tears</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Andy Grammer</t>
         </is>
       </c>
     </row>
@@ -4006,12 +4006,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>내 손을 잡아</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -4026,12 +4026,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>아로하</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>i-dle (아이들)</t>
+          <t>조정석</t>
         </is>
       </c>
     </row>
@@ -4046,12 +4046,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>미인 (Feat. Balming Tiger)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>Super Shy</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4086,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>Lips Hips Kiss</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -4106,12 +4106,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HANDS UP</t>
+          <t>The Chase</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>MEOVV (미야오)</t>
+          <t>Hearts2Hearts (하츠투하츠)</t>
         </is>
       </c>
     </row>
@@ -4126,12 +4126,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>네모의 꿈</t>
+          <t>Loving You Girl (Feat. Hkeem)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>Peder Elias</t>
         </is>
       </c>
     </row>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>Maybe Tomorrow</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4166,12 +4166,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>Stronger (What Doesn't Kill You)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>Kelly Clarkson</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4186,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>그날이 오면</t>
+          <t>Igloo</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>투모로우바이투게더</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>미치게 그리워서</t>
+          <t>해요 (2022)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>#안녕</t>
         </is>
       </c>
     </row>
@@ -4226,12 +4226,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>쏜살</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>10월 4일</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>밤하늘의 별을 (2020)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>오반 (OVAN)</t>
+          <t>경서</t>
         </is>
       </c>
     </row>
@@ -4286,12 +4286,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>있잖아</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -4306,12 +4306,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>거짓말</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>PO￦ER</t>
+          <t>LAST DANCE</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -4346,12 +4346,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>눈물참기</t>
+          <t>Seven (Feat. Latto) (Clean Ver.)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>I'm Not The Only One</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>Sam Smith</t>
         </is>
       </c>
     </row>
@@ -4386,12 +4386,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>123-78</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>아일릿 (ILLIT)</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4406,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>바람이 부는 날엔</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -4426,12 +4426,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>봄날에</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -4446,12 +4446,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>별 헤는 밤</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
